--- a/7_Part 4 Graphics and tables/xlsx-files/Geschlechter.xlsx
+++ b/7_Part 4 Graphics and tables/xlsx-files/Geschlechter.xlsx
@@ -464,7 +464,7 @@
         </is>
       </c>
       <c r="B2" s="3" t="n">
-        <v>51.3</v>
+        <v>49.3</v>
       </c>
     </row>
     <row r="3">
@@ -474,7 +474,7 @@
         </is>
       </c>
       <c r="B3" s="3" t="n">
-        <v>44.7</v>
+        <v>46.2</v>
       </c>
     </row>
     <row r="4">
@@ -484,7 +484,7 @@
         </is>
       </c>
       <c r="B4" s="3" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
     </row>
   </sheetData>
